--- a/S2022_Tests/ASS_03_Testing/StudentFolder/Ex.2/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_03_Testing/StudentFolder/Ex.2/ExcelExtract.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_03_Testing\StudentFolder\Ex.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14A21D7A-7130-4F67-A204-0BF89C1D5EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A3A7B8C-BDB0-47DC-9E2C-7B7ED18A7AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{5D10156E-7989-4874-B295-29EDA1ED506F}"/>
+    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{023115AF-44AD-415E-BEB0-E094DA3A716D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1705,7 +1705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B493EA2C-E028-48E7-BA86-0233D5DE3D5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07465E59-12FF-4B43-AB2D-59F3D2147BCB}">
   <dimension ref="A1:AS344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/S2022_Tests/ASS_03_Testing/StudentFolder/Ex.2/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_03_Testing/StudentFolder/Ex.2/ExcelExtract.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_03_Testing\StudentFolder\Ex.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A3A7B8C-BDB0-47DC-9E2C-7B7ED18A7AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37FA5210-A8EA-4D43-9B95-D4711930C848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{023115AF-44AD-415E-BEB0-E094DA3A716D}"/>
+    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{099681A1-E84E-441D-BBE1-C9376EBB7D18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1705,7 +1705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07465E59-12FF-4B43-AB2D-59F3D2147BCB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5236CB-FA2A-4219-9DB7-FF7A14B731CF}">
   <dimension ref="A1:AS344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/S2022_Tests/ASS_03_Testing/StudentFolder/Ex.2/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_03_Testing/StudentFolder/Ex.2/ExcelExtract.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_03_Testing\StudentFolder\Ex.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37FA5210-A8EA-4D43-9B95-D4711930C848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20F4C04E-FC25-4AB8-B4D1-3F0284BA0574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{099681A1-E84E-441D-BBE1-C9376EBB7D18}"/>
+    <workbookView xWindow="3587" yWindow="667" windowWidth="7513" windowHeight="7800" xr2:uid="{8A864ECD-F6D6-4F7E-9486-0FFDCCD59150}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1705,7 +1705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5236CB-FA2A-4219-9DB7-FF7A14B731CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2339EDE7-A7EA-4418-87FC-AD36ECB41DAB}">
   <dimension ref="A1:AS344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/S2022_Tests/ASS_03_Testing/StudentFolder/Ex.2/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_03_Testing/StudentFolder/Ex.2/ExcelExtract.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_03_Testing\StudentFolder\Ex.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20F4C04E-FC25-4AB8-B4D1-3F0284BA0574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA5CCF96-C01C-4427-AC3F-976566109006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3587" yWindow="667" windowWidth="7513" windowHeight="7800" xr2:uid="{8A864ECD-F6D6-4F7E-9486-0FFDCCD59150}"/>
+    <workbookView xWindow="13" yWindow="4847" windowWidth="24860" windowHeight="7800" xr2:uid="{6813CA38-152A-43CA-8582-E3987C6FBC89}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1705,7 +1705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2339EDE7-A7EA-4418-87FC-AD36ECB41DAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3248FCAA-0B16-428C-BF9D-9A6802D8D8F2}">
   <dimension ref="A1:AS344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -24126,7 +24126,7 @@
         <v>5</v>
       </c>
       <c r="F332">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G332">
         <v>1</v>
@@ -24477,7 +24477,7 @@
         <v>2</v>
       </c>
       <c r="F335">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G335">
         <v>1</v>
